--- a/output/phd9_cat_ordered_logistic.xlsx
+++ b/output/phd9_cat_ordered_logistic.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
   <si>
     <t xml:space="preserve">Characteristic
 </t>
@@ -42,30 +42,30 @@
     <t xml:space="preserve">     Chinese</t>
   </si>
   <si>
+    <t xml:space="preserve">Marital status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     single</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     married</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     divorced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     widow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Bangkok</t>
+  </si>
+  <si>
     <t xml:space="preserve">     others</t>
   </si>
   <si>
-    <t xml:space="preserve">Marital status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     single</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     married</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     divorced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     widow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Bangkok</t>
-  </si>
-  <si>
     <t xml:space="preserve">Education</t>
   </si>
   <si>
@@ -135,10 +135,7 @@
     <t xml:space="preserve">     Gait aid</t>
   </si>
   <si>
-    <t xml:space="preserve">Hearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Hearing aid</t>
+    <t xml:space="preserve">PatientHearing</t>
   </si>
   <si>
     <t xml:space="preserve">     Hearing impairment</t>
@@ -292,162 +289,150 @@
     <t xml:space="preserve">—</t>
   </si>
   <si>
-    <t xml:space="preserve">238,460,136</t>
-  </si>
-  <si>
     <t xml:space="preserve">95% CI
 </t>
   </si>
   <si>
-    <t xml:space="preserve">0.98, 1.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.26, 26.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.88, 1.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.01, 3.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">238,455,698, 238,464,574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22, 5.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.30, 51.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.42, 15.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.09, 1.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.03, 30.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.03, 21.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.04, 24.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.01, 3.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17, 23.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23, 2.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14, 4.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.06, 4.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.05, 2.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.20, 4.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.21, 11.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.21, 21.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.04, 3.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00, 0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.54, 32.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.19, 2.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.05, 129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.59, 64.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.26, 15.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.38, 517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14, 10.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.66, 65.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.53, 6.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14, 1,784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11, 5.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00, 63.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00, 2.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00, 0.91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00, 2.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.56, 11.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.30, 6.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23, 11.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.37, 4.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15, 4.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25, 2.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14, 11.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.34, 11.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.31, 3.80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.74, 33.4</t>
+    <t xml:space="preserve">1.00, 1.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15, 7.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.91, 1.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.01, 3.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.22, 4.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.39, 66.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35, 11.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.08, 1.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.03, 31.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.03, 18.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.03, 19.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.06, 5.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17, 20.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.27, 2.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.21, 5.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.08, 6.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.07, 3.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.29, 5.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.33, 13.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35, 29.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.03, 1.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.52, 31.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16, 1.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.03, 27.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35, 22.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23, 12.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23, 169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17, 11.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.89, 87.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.50, 5.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11, 689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.98, 4.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00, 27.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00, 2.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00, 0.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00, 1.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.52, 8.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.30, 6.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.33, 14.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.59, 6.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15, 4.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.19, 2.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29, 13.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.22, 7.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.29, 3.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56, 51.7</t>
   </si>
   <si>
     <t xml:space="preserve">p-value
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;0.001</t>
   </si>
   <si>
     <t xml:space="preserve">&gt;0.9</t>
@@ -901,13 +886,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" ht="NA" customHeight="1">
@@ -915,13 +900,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D2" s="7" t="n">
-        <v>0.13</v>
+        <v>0.058</v>
       </c>
     </row>
     <row r="3" ht="NA" customHeight="1">
@@ -929,13 +914,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" ht="NA" customHeight="1">
@@ -943,13 +928,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" ht="NA" customHeight="1">
@@ -957,13 +942,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="n">
-        <v>2.61</v>
+        <v>1.02</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" s="8" t="n">
-        <v>0.4</v>
+        <v>93</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="6" ht="NA" customHeight="1">
@@ -971,13 +956,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D6" s="8" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" ht="NA" customHeight="1">
@@ -985,13 +970,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" ht="NA" customHeight="1">
@@ -999,13 +984,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" ht="NA" customHeight="1">
@@ -1013,10 +998,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D9" s="8" t="n">
         <v>0.3</v>
@@ -1027,13 +1012,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" ht="NA" customHeight="1">
@@ -1047,21 +1032,21 @@
         <v>90</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" ht="NA" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>91</v>
+      <c r="B12" s="8" t="n">
+        <v>1.02</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>90</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" ht="NA" customHeight="1">
@@ -1069,13 +1054,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="n">
-        <v>1.06</v>
+        <v>5.05</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>144</v>
+        <v>97</v>
+      </c>
+      <c r="D13" s="8" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="14" ht="NA" customHeight="1">
@@ -1083,27 +1068,27 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="n">
-        <v>3.92</v>
+        <v>2.04</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D14" s="8" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="15" ht="NA" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="n">
-        <v>2.57</v>
+      <c r="B15" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D15" s="8" t="n">
-        <v>0.3</v>
+        <v>89</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="16" ht="NA" customHeight="1">
@@ -1117,40 +1102,40 @@
         <v>90</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" ht="NA" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>91</v>
+      <c r="B17" s="8" t="n">
+        <v>0.32</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>90</v>
+        <v>99</v>
+      </c>
+      <c r="D17" s="8" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="18" ht="NA" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="8" t="n">
-        <v>0.36</v>
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D18" s="8" t="n">
-        <v>0.15</v>
+        <v>89</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="19" ht="NA" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>90</v>
@@ -1159,68 +1144,68 @@
         <v>90</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" ht="NA" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>91</v>
+        <v>19</v>
+      </c>
+      <c r="B20" s="8" t="n">
+        <v>0.93</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>90</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" ht="NA" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="8" t="n">
-        <v>0.88</v>
+        <v>0.7</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>144</v>
+        <v>101</v>
+      </c>
+      <c r="D21" s="8" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="22" ht="NA" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="8" t="n">
-        <v>0.83</v>
+        <v>0.72</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>144</v>
+        <v>102</v>
+      </c>
+      <c r="D22" s="8" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="23" ht="NA" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="8" t="n">
-        <v>0.93</v>
+        <v>22</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" ht="NA" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>90</v>
@@ -1229,68 +1214,68 @@
         <v>90</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" ht="NA" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>91</v>
+        <v>24</v>
+      </c>
+      <c r="B25" s="8" t="n">
+        <v>0.6</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>90</v>
+        <v>103</v>
+      </c>
+      <c r="D25" s="8" t="n">
+        <v>0.7</v>
       </c>
     </row>
     <row r="26" ht="NA" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="8" t="n">
-        <v>0.21</v>
+        <v>1.85</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D26" s="8" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="27" ht="NA" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="8" t="n">
-        <v>2</v>
+        <v>0.88</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D27" s="8" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="28" ht="NA" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="8" t="n">
-        <v>0.77</v>
+        <v>27</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D28" s="8" t="n">
-        <v>0.7</v>
+        <v>89</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="29" ht="NA" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>90</v>
@@ -1299,82 +1284,82 @@
         <v>90</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" ht="NA" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>91</v>
+        <v>29</v>
+      </c>
+      <c r="B30" s="8" t="n">
+        <v>1.08</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>90</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" ht="NA" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="8" t="n">
-        <v>0.77</v>
+        <v>0.69</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D31" s="8" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="32" ht="NA" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="8" t="n">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D32" s="8" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="33" ht="NA" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="8" t="n">
-        <v>0.38</v>
+        <v>1.31</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D33" s="8" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="34" ht="NA" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="8" t="n">
-        <v>0.95</v>
+        <v>33</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" ht="NA" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>90</v>
@@ -1383,54 +1368,54 @@
         <v>90</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" ht="NA" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>91</v>
+        <v>35</v>
+      </c>
+      <c r="B36" s="8" t="n">
+        <v>2.06</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>90</v>
+        <v>110</v>
+      </c>
+      <c r="D36" s="8" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="37" ht="NA" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="8" t="n">
-        <v>1.54</v>
+        <v>3.21</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="38" ht="NA" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="8" t="n">
-        <v>2.11</v>
+        <v>37</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D38" s="8" t="n">
-        <v>0.5</v>
+        <v>89</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="39" ht="NA" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>90</v>
@@ -1439,40 +1424,40 @@
         <v>90</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" ht="NA" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>91</v>
+        <v>39</v>
+      </c>
+      <c r="B40" s="8" t="n">
+        <v>0.23</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>90</v>
+        <v>112</v>
+      </c>
+      <c r="D40" s="8" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="41" ht="NA" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="8" t="n">
-        <v>0.37</v>
+        <v>40</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D41" s="8" t="n">
-        <v>0.4</v>
+        <v>89</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="42" ht="NA" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>90</v>
@@ -1481,852 +1466,824 @@
         <v>90</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" ht="NA" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>91</v>
+        <v>41</v>
+      </c>
+      <c r="B43" s="8" t="n">
+        <v>4.05</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>90</v>
+        <v>113</v>
+      </c>
+      <c r="D43" s="8" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="44" ht="NA" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B44" s="8" t="n">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" ht="NA" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" s="8" t="n">
-        <v>4.16</v>
+        <v>38</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D45" s="8" t="n">
-        <v>0.2</v>
+        <v>90</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="46" ht="NA" customHeight="1">
       <c r="A46" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="8" t="s">
-        <v>90</v>
+      <c r="B46" s="8" t="n">
+        <v>0.51</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>90</v>
+        <v>114</v>
+      </c>
+      <c r="D46" s="8" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="47" ht="NA" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" ht="NA" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B48" s="8" t="n">
-        <v>0.62</v>
+        <v>45</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D48" s="8" t="n">
-        <v>0.4</v>
+        <v>90</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="49" ht="NA" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>90</v>
+        <v>46</v>
+      </c>
+      <c r="B49" s="8" t="n">
+        <v>0.91</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>90</v>
+        <v>139</v>
       </c>
     </row>
     <row r="50" ht="NA" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>91</v>
+        <v>47</v>
+      </c>
+      <c r="B50" s="8" t="n">
+        <v>2.83</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>90</v>
+        <v>116</v>
+      </c>
+      <c r="D50" s="8" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="51" ht="NA" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B51" s="8" t="n">
-        <v>2.6</v>
+        <v>48</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D51" s="8" t="n">
-        <v>0.6</v>
+        <v>89</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="52" ht="NA" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B52" s="8" t="n">
-        <v>6.16</v>
+        <v>49</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D52" s="8" t="n">
-        <v>0.13</v>
+        <v>90</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="53" ht="NA" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>90</v>
+        <v>50</v>
+      </c>
+      <c r="B53" s="8" t="n">
+        <v>1.66</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>90</v>
+        <v>117</v>
+      </c>
+      <c r="D53" s="8" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="54" ht="NA" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>91</v>
+        <v>51</v>
+      </c>
+      <c r="B54" s="8" t="n">
+        <v>6.21</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>90</v>
+        <v>118</v>
+      </c>
+      <c r="D54" s="8" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="55" ht="NA" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B55" s="8" t="n">
-        <v>2.01</v>
+        <v>52</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D55" s="8" t="n">
-        <v>0.5</v>
+        <v>89</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="56" ht="NA" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B56" s="8" t="n">
-        <v>14.1</v>
+        <v>53</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D56" s="8" t="n">
-        <v>0.15</v>
+        <v>90</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="57" ht="NA" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>90</v>
+        <v>54</v>
+      </c>
+      <c r="B57" s="8" t="n">
+        <v>1.4</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>90</v>
+        <v>119</v>
+      </c>
+      <c r="D57" s="8" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="58" ht="NA" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>91</v>
+        <v>55</v>
+      </c>
+      <c r="B58" s="8" t="n">
+        <v>8.8</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>90</v>
+        <v>120</v>
+      </c>
+      <c r="D58" s="8" t="n">
+        <v>0.063</v>
       </c>
     </row>
     <row r="59" ht="NA" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B59" s="8" t="n">
-        <v>1.22</v>
+        <v>56</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D59" s="8" t="n">
-        <v>0.9</v>
+        <v>89</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="60" ht="NA" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B60" s="8" t="n">
-        <v>6.56</v>
+        <v>38</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D60" s="8" t="n">
-        <v>0.11</v>
+        <v>90</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="61" ht="NA" customHeight="1">
       <c r="A61" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B61" s="8" t="s">
-        <v>90</v>
+      <c r="B61" s="8" t="n">
+        <v>1.7</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>90</v>
+        <v>121</v>
+      </c>
+      <c r="D61" s="8" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="62" ht="NA" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>91</v>
+        <v>58</v>
+      </c>
+      <c r="B62" s="8" t="n">
+        <v>8.54</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>90</v>
+        <v>122</v>
+      </c>
+      <c r="D62" s="8" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="63" ht="NA" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B63" s="8" t="n">
-        <v>1.9</v>
+        <v>2.19</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D63" s="8" t="n">
-        <v>0.3</v>
+        <v>0.056</v>
       </c>
     </row>
     <row r="64" ht="NA" customHeight="1">
       <c r="A64" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B64" s="8" t="n">
-        <v>16</v>
+        <v>60</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D64" s="8" t="n">
-        <v>0.2</v>
+        <v>89</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="65" ht="NA" customHeight="1">
       <c r="A65" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B65" s="8" t="n">
-        <v>2.55</v>
+        <v>61</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D65" s="8" t="n">
-        <v>0.027</v>
+        <v>90</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="66" ht="NA" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>90</v>
+        <v>62</v>
+      </c>
+      <c r="B66" s="8" t="n">
+        <v>0.09</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>90</v>
+        <v>124</v>
+      </c>
+      <c r="D66" s="8" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="67" ht="NA" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>91</v>
+        <v>63</v>
+      </c>
+      <c r="B67" s="8" t="n">
+        <v>0.02</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>90</v>
+        <v>125</v>
+      </c>
+      <c r="D67" s="8" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="68" ht="NA" customHeight="1">
       <c r="A68" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B68" s="8" t="n">
-        <v>0.18</v>
+        <v>0.01</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D68" s="8" t="n">
-        <v>0.6</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="69" ht="NA" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B69" s="8" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D69" s="8" t="n">
-        <v>0.11</v>
+        <v>0.061</v>
       </c>
     </row>
     <row r="70" ht="NA" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B70" s="8" t="n">
-        <v>0.01</v>
+        <v>66</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D70" s="8" t="n">
-        <v>0.046</v>
+        <v>89</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="71" ht="NA" customHeight="1">
       <c r="A71" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B71" s="8" t="n">
-        <v>0.01</v>
+        <v>67</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D71" s="8" t="n">
-        <v>0.092</v>
+        <v>90</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="72" ht="NA" customHeight="1">
       <c r="A72" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>90</v>
+        <v>68</v>
+      </c>
+      <c r="B72" s="8" t="n">
+        <v>2.13</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>90</v>
+        <v>128</v>
+      </c>
+      <c r="D72" s="8" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="73" ht="NA" customHeight="1">
       <c r="A73" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" ht="NA" customHeight="1">
       <c r="A74" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B74" s="8" t="n">
-        <v>2.51</v>
+        <v>67</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D74" s="8" t="n">
-        <v>0.2</v>
+        <v>90</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="75" ht="NA" customHeight="1">
       <c r="A75" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B75" s="8" t="s">
-        <v>90</v>
+      <c r="B75" s="8" t="n">
+        <v>1.45</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>90</v>
+        <v>129</v>
+      </c>
+      <c r="D75" s="8" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="76" ht="NA" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" ht="NA" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B77" s="8" t="n">
-        <v>1.4</v>
+        <v>67</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="D77" s="8" t="n">
-        <v>0.7</v>
+        <v>90</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="78" ht="NA" customHeight="1">
       <c r="A78" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B78" s="8" t="s">
-        <v>90</v>
+      <c r="B78" s="8" t="n">
+        <v>2.18</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>90</v>
+        <v>130</v>
+      </c>
+      <c r="D78" s="8" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="79" ht="NA" customHeight="1">
       <c r="A79" s="3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80" ht="NA" customHeight="1">
       <c r="A80" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B80" s="8" t="n">
-        <v>1.63</v>
+        <v>67</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D80" s="8" t="n">
-        <v>0.6</v>
+        <v>90</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="81" ht="NA" customHeight="1">
       <c r="A81" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B81" s="8" t="s">
-        <v>90</v>
+      <c r="B81" s="8" t="n">
+        <v>1.99</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>90</v>
+        <v>131</v>
+      </c>
+      <c r="D81" s="8" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="82" ht="NA" customHeight="1">
       <c r="A82" s="3" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="83" ht="NA" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B83" s="8" t="n">
-        <v>1.35</v>
+        <v>67</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D83" s="8" t="n">
-        <v>0.6</v>
+        <v>90</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="84" ht="NA" customHeight="1">
       <c r="A84" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B84" s="8" t="s">
-        <v>90</v>
+      <c r="B84" s="8" t="n">
+        <v>0.83</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>90</v>
+        <v>132</v>
+      </c>
+      <c r="D84" s="8" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="85" ht="NA" customHeight="1">
       <c r="A85" s="3" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="86" ht="NA" customHeight="1">
       <c r="A86" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B86" s="8" t="n">
-        <v>0.81</v>
+        <v>67</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D86" s="8" t="n">
-        <v>0.8</v>
+        <v>90</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="87" ht="NA" customHeight="1">
       <c r="A87" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B87" s="8" t="s">
-        <v>90</v>
+      <c r="B87" s="8" t="n">
+        <v>0.65</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>90</v>
+        <v>133</v>
+      </c>
+      <c r="D87" s="8" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="88" ht="NA" customHeight="1">
       <c r="A88" s="3" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89" ht="NA" customHeight="1">
       <c r="A89" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B89" s="8" t="n">
-        <v>0.87</v>
+        <v>67</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D89" s="8" t="n">
-        <v>0.8</v>
+        <v>90</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="90" ht="NA" customHeight="1">
       <c r="A90" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B90" s="8" t="s">
-        <v>90</v>
+      <c r="B90" s="8" t="n">
+        <v>4.17</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>90</v>
+        <v>134</v>
+      </c>
+      <c r="D90" s="8" t="n">
+        <v>0.017</v>
       </c>
     </row>
     <row r="91" ht="NA" customHeight="1">
       <c r="A91" s="3" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="92" ht="NA" customHeight="1">
       <c r="A92" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B92" s="8" t="n">
-        <v>3.64</v>
+        <v>67</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="D92" s="8" t="n">
-        <v>0.03</v>
+        <v>90</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="93" ht="NA" customHeight="1">
       <c r="A93" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B93" s="8" t="s">
-        <v>90</v>
+      <c r="B93" s="8" t="n">
+        <v>1.25</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>90</v>
+        <v>135</v>
+      </c>
+      <c r="D93" s="8" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="94" ht="NA" customHeight="1">
       <c r="A94" s="3" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="95" ht="NA" customHeight="1">
       <c r="A95" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B95" s="8" t="n">
-        <v>1.96</v>
+        <v>67</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="D95" s="8" t="n">
-        <v>0.5</v>
+        <v>90</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="96" ht="NA" customHeight="1">
       <c r="A96" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B96" s="8" t="s">
-        <v>90</v>
+      <c r="B96" s="8" t="n">
+        <v>1</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>90</v>
+        <v>139</v>
       </c>
     </row>
     <row r="97" ht="NA" customHeight="1">
       <c r="A97" s="3" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="98" ht="NA" customHeight="1">
       <c r="A98" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B98" s="8" t="n">
-        <v>1.09</v>
+        <v>67</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D98" s="8" t="n">
-        <v>0.9</v>
+        <v>90</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="99" ht="NA" customHeight="1">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B99" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>90</v>
+      <c r="B99" s="9" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D99" s="9" t="n">
+        <v>0.014</v>
       </c>
     </row>
     <row r="100" ht="NA" customHeight="1">
-      <c r="A100" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="101" ht="NA" customHeight="1">
-      <c r="A101" s="4" t="s">
+      <c r="A100" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B101" s="9" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="C101" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="D101" s="9" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="102" ht="NA" customHeight="1">
-      <c r="A102" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>88</v>
+      <c r="B100" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A102:D102"/>
+    <mergeCell ref="A100:D100"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/output/phd9_cat_ordered_logistic.xlsx
+++ b/output/phd9_cat_ordered_logistic.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
   <si>
     <t xml:space="preserve">Characteristic
 </t>
@@ -120,6 +120,9 @@
     <t xml:space="preserve">     Same</t>
   </si>
   <si>
+    <t xml:space="preserve">     Less than 50% loss</t>
+  </si>
+  <si>
     <t xml:space="preserve">     Over 50% loss</t>
   </si>
   <si>
@@ -293,142 +296,145 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1.00, 1.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15, 7.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.91, 1.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.01, 3.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22, 4.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.39, 66.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35, 11.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.08, 1.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.03, 31.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.03, 18.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.03, 19.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.06, 5.80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17, 20.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.27, 2.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.21, 5.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.08, 6.01</t>
+    <t xml:space="preserve">0.99, 1.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11, 3.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.93, 1.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.02, 4.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.19, 2.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.33, 40.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.20, 4.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.08, 0.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.02, 20.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.03, 15.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.02, 13.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15, 6.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11, 8.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.26, 2.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.22, 4.95</t>
   </si>
   <si>
     <t xml:space="preserve">0.07, 3.92</t>
   </si>
   <si>
-    <t xml:space="preserve">0.29, 5.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.33, 13.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35, 29.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.03, 1.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.52, 31.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16, 1.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.03, 27.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35, 22.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23, 12.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23, 169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17, 11.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.89, 87.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.50, 5.80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11, 689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98, 4.91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00, 27.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00, 2.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00, 0.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00, 1.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.52, 8.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.30, 6.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.33, 14.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.59, 6.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15, 4.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.19, 2.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29, 13.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22, 7.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.29, 3.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56, 51.7</t>
+    <t xml:space="preserve">0.08, 2.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.24, 3.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.58, 15.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.30, 10.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.34, 24.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.04, 1.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.72, 25.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15, 1.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.02, 13.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.21, 9.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.24, 10.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.24, 125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16, 10.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95, 85.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.64, 6.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.10, 379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.94, 4.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00, 12.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00, 1.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00, 0.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00, 0.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.40, 5.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35, 5.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.41, 13.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.86, 7.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35, 7.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.21, 2.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19, 10.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.20, 4.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.27, 2.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70, 34.1</t>
   </si>
   <si>
     <t xml:space="preserve">p-value
@@ -886,13 +892,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" ht="NA" customHeight="1">
@@ -900,13 +906,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D2" s="7" t="n">
-        <v>0.058</v>
+        <v>0.088</v>
       </c>
     </row>
     <row r="3" ht="NA" customHeight="1">
@@ -914,13 +920,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" ht="NA" customHeight="1">
@@ -928,13 +934,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" ht="NA" customHeight="1">
@@ -942,13 +948,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="n">
-        <v>1.02</v>
+        <v>0.6</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>139</v>
+        <v>94</v>
+      </c>
+      <c r="D5" s="8" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="6" ht="NA" customHeight="1">
@@ -956,13 +962,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D6" s="8" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="7" ht="NA" customHeight="1">
@@ -970,13 +976,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" ht="NA" customHeight="1">
@@ -984,13 +990,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" ht="NA" customHeight="1">
@@ -998,13 +1004,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="n">
-        <v>0.22</v>
+        <v>0.29</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D9" s="8" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10" ht="NA" customHeight="1">
@@ -1012,13 +1018,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" ht="NA" customHeight="1">
@@ -1026,13 +1032,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" ht="NA" customHeight="1">
@@ -1040,13 +1046,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="n">
-        <v>1.02</v>
+        <v>0.73</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>139</v>
+        <v>97</v>
+      </c>
+      <c r="D12" s="8" t="n">
+        <v>0.7</v>
       </c>
     </row>
     <row r="13" ht="NA" customHeight="1">
@@ -1054,13 +1060,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="n">
-        <v>5.05</v>
+        <v>3.64</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D13" s="8" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="14" ht="NA" customHeight="1">
@@ -1068,13 +1074,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="n">
-        <v>2.04</v>
+        <v>0.96</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" s="8" t="n">
-        <v>0.4</v>
+        <v>99</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="15" ht="NA" customHeight="1">
@@ -1082,13 +1088,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" ht="NA" customHeight="1">
@@ -1096,13 +1102,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" ht="NA" customHeight="1">
@@ -1110,13 +1116,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="n">
-        <v>0.32</v>
+        <v>0.29</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D17" s="8" t="n">
-        <v>0.1</v>
+        <v>0.048</v>
       </c>
     </row>
     <row r="18" ht="NA" customHeight="1">
@@ -1124,13 +1130,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" ht="NA" customHeight="1">
@@ -1138,13 +1144,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" ht="NA" customHeight="1">
@@ -1152,13 +1158,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="8" t="n">
-        <v>0.93</v>
+        <v>0.68</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>139</v>
+        <v>101</v>
+      </c>
+      <c r="D20" s="8" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="21" ht="NA" customHeight="1">
@@ -1166,10 +1172,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="8" t="n">
-        <v>0.7</v>
+        <v>0.62</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D21" s="8" t="n">
         <v>0.8</v>
@@ -1180,13 +1186,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="8" t="n">
-        <v>0.72</v>
+        <v>0.56</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D22" s="8" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="23" ht="NA" customHeight="1">
@@ -1194,13 +1200,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" ht="NA" customHeight="1">
@@ -1208,13 +1214,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" ht="NA" customHeight="1">
@@ -1222,13 +1228,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="8" t="n">
-        <v>0.6</v>
+        <v>0.99</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D25" s="8" t="n">
-        <v>0.7</v>
+        <v>104</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="26" ht="NA" customHeight="1">
@@ -1236,13 +1242,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="n">
-        <v>1.85</v>
+        <v>0.97</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" s="8" t="n">
-        <v>0.6</v>
+        <v>105</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="27" ht="NA" customHeight="1">
@@ -1250,13 +1256,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="8" t="n">
-        <v>0.88</v>
+        <v>0.79</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D27" s="8" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="28" ht="NA" customHeight="1">
@@ -1264,13 +1270,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" ht="NA" customHeight="1">
@@ -1278,13 +1284,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" ht="NA" customHeight="1">
@@ -1292,13 +1298,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="8" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" ht="NA" customHeight="1">
@@ -1306,13 +1312,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="8" t="n">
-        <v>0.69</v>
+        <v>0.53</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D31" s="8" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="32" ht="NA" customHeight="1">
@@ -1320,13 +1326,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="8" t="n">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D32" s="8" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="33" ht="NA" customHeight="1">
@@ -1334,13 +1340,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="8" t="n">
-        <v>1.31</v>
+        <v>0.97</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D33" s="8" t="n">
-        <v>0.7</v>
+        <v>110</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="34" ht="NA" customHeight="1">
@@ -1348,13 +1354,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" ht="NA" customHeight="1">
@@ -1362,13 +1368,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" ht="NA" customHeight="1">
@@ -1376,13 +1382,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="8" t="n">
-        <v>2.06</v>
+        <v>3.01</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="37" ht="NA" customHeight="1">
@@ -1390,27 +1396,27 @@
         <v>36</v>
       </c>
       <c r="B37" s="8" t="n">
-        <v>3.21</v>
+        <v>1.74</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="38" ht="NA" customHeight="1">
       <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>89</v>
+      <c r="B38" s="8" t="n">
+        <v>2.88</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>89</v>
+        <v>113</v>
+      </c>
+      <c r="D38" s="8" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="39" ht="NA" customHeight="1">
@@ -1424,40 +1430,40 @@
         <v>90</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" ht="NA" customHeight="1">
       <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="8" t="n">
-        <v>0.23</v>
+      <c r="B40" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D40" s="8" t="n">
-        <v>0.2</v>
+        <v>91</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="41" ht="NA" customHeight="1">
       <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>89</v>
+      <c r="B41" s="8" t="n">
+        <v>0.26</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>89</v>
+        <v>114</v>
+      </c>
+      <c r="D41" s="8" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="42" ht="NA" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>90</v>
@@ -1466,40 +1472,40 @@
         <v>90</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" ht="NA" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="8" t="n">
-        <v>4.05</v>
+        <v>39</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D43" s="8" t="n">
-        <v>0.2</v>
+        <v>91</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="44" ht="NA" customHeight="1">
       <c r="A44" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="8" t="s">
-        <v>89</v>
+      <c r="B44" s="8" t="n">
+        <v>4.27</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>89</v>
+        <v>115</v>
+      </c>
+      <c r="D44" s="8" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="45" ht="NA" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>90</v>
@@ -1508,35 +1514,35 @@
         <v>90</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" ht="NA" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46" s="8" t="n">
-        <v>0.51</v>
+        <v>39</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D46" s="8" t="n">
-        <v>0.3</v>
+        <v>91</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="47" ht="NA" customHeight="1">
       <c r="A47" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="8" t="s">
-        <v>89</v>
+      <c r="B47" s="8" t="n">
+        <v>0.46</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>89</v>
+        <v>116</v>
+      </c>
+      <c r="D47" s="8" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="48" ht="NA" customHeight="1">
@@ -1550,21 +1556,21 @@
         <v>90</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" ht="NA" customHeight="1">
       <c r="A49" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="8" t="n">
-        <v>0.91</v>
+      <c r="B49" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>139</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" ht="NA" customHeight="1">
@@ -1572,27 +1578,27 @@
         <v>47</v>
       </c>
       <c r="B50" s="8" t="n">
-        <v>2.83</v>
+        <v>0.53</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D50" s="8" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="51" ht="NA" customHeight="1">
       <c r="A51" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B51" s="8" t="s">
-        <v>89</v>
+      <c r="B51" s="8" t="n">
+        <v>1.39</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>89</v>
+        <v>118</v>
+      </c>
+      <c r="D51" s="8" t="n">
+        <v>0.7</v>
       </c>
     </row>
     <row r="52" ht="NA" customHeight="1">
@@ -1606,21 +1612,21 @@
         <v>90</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" ht="NA" customHeight="1">
       <c r="A53" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B53" s="8" t="n">
-        <v>1.66</v>
+      <c r="B53" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D53" s="8" t="n">
-        <v>0.6</v>
+        <v>91</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="54" ht="NA" customHeight="1">
@@ -1628,27 +1634,27 @@
         <v>51</v>
       </c>
       <c r="B54" s="8" t="n">
-        <v>6.21</v>
+        <v>1.6</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D54" s="8" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="55" ht="NA" customHeight="1">
       <c r="A55" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B55" s="8" t="s">
-        <v>89</v>
+      <c r="B55" s="8" t="n">
+        <v>5.44</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>89</v>
+        <v>120</v>
+      </c>
+      <c r="D55" s="8" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="56" ht="NA" customHeight="1">
@@ -1662,21 +1668,21 @@
         <v>90</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57" ht="NA" customHeight="1">
       <c r="A57" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="8" t="n">
-        <v>1.4</v>
+      <c r="B57" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D57" s="8" t="n">
-        <v>0.8</v>
+        <v>91</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="58" ht="NA" customHeight="1">
@@ -1684,32 +1690,32 @@
         <v>55</v>
       </c>
       <c r="B58" s="8" t="n">
-        <v>8.8</v>
+        <v>1.29</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D58" s="8" t="n">
-        <v>0.063</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="59" ht="NA" customHeight="1">
       <c r="A59" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B59" s="8" t="s">
-        <v>89</v>
+      <c r="B59" s="8" t="n">
+        <v>9</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>89</v>
+        <v>122</v>
+      </c>
+      <c r="D59" s="8" t="n">
+        <v>0.055</v>
       </c>
     </row>
     <row r="60" ht="NA" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>90</v>
@@ -1718,21 +1724,21 @@
         <v>90</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61" ht="NA" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B61" s="8" t="n">
-        <v>1.7</v>
+        <v>39</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D61" s="8" t="n">
-        <v>0.4</v>
+        <v>91</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="62" ht="NA" customHeight="1">
@@ -1740,13 +1746,13 @@
         <v>58</v>
       </c>
       <c r="B62" s="8" t="n">
-        <v>8.54</v>
+        <v>2.03</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D62" s="8" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="63" ht="NA" customHeight="1">
@@ -1754,27 +1760,27 @@
         <v>59</v>
       </c>
       <c r="B63" s="8" t="n">
-        <v>2.19</v>
+        <v>6.02</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D63" s="8" t="n">
-        <v>0.056</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="64" ht="NA" customHeight="1">
       <c r="A64" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B64" s="8" t="s">
-        <v>89</v>
+      <c r="B64" s="8" t="n">
+        <v>2.12</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>89</v>
+        <v>125</v>
+      </c>
+      <c r="D64" s="8" t="n">
+        <v>0.071</v>
       </c>
     </row>
     <row r="65" ht="NA" customHeight="1">
@@ -1788,21 +1794,21 @@
         <v>90</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" ht="NA" customHeight="1">
       <c r="A66" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B66" s="8" t="n">
-        <v>0.09</v>
+      <c r="B66" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D66" s="8" t="n">
-        <v>0.4</v>
+        <v>91</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="67" ht="NA" customHeight="1">
@@ -1810,13 +1816,13 @@
         <v>63</v>
       </c>
       <c r="B67" s="8" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D67" s="8" t="n">
-        <v>0.11</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="68" ht="NA" customHeight="1">
@@ -1827,10 +1833,10 @@
         <v>0.01</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D68" s="8" t="n">
-        <v>0.041</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="69" ht="NA" customHeight="1">
@@ -1841,24 +1847,24 @@
         <v>0.01</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D69" s="8" t="n">
-        <v>0.061</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="70" ht="NA" customHeight="1">
       <c r="A70" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B70" s="8" t="s">
-        <v>89</v>
+      <c r="B70" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>89</v>
+        <v>129</v>
+      </c>
+      <c r="D70" s="8" t="n">
+        <v>0.038</v>
       </c>
     </row>
     <row r="71" ht="NA" customHeight="1">
@@ -1872,40 +1878,40 @@
         <v>90</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72" ht="NA" customHeight="1">
       <c r="A72" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B72" s="8" t="n">
-        <v>2.13</v>
+      <c r="B72" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D72" s="8" t="n">
-        <v>0.3</v>
+        <v>91</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="73" ht="NA" customHeight="1">
       <c r="A73" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B73" s="8" t="s">
-        <v>89</v>
+      <c r="B73" s="8" t="n">
+        <v>1.43</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>89</v>
+        <v>130</v>
+      </c>
+      <c r="D73" s="8" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="74" ht="NA" customHeight="1">
       <c r="A74" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>90</v>
@@ -1914,40 +1920,40 @@
         <v>90</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" ht="NA" customHeight="1">
       <c r="A75" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B75" s="8" t="n">
-        <v>1.45</v>
+        <v>68</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D75" s="8" t="n">
-        <v>0.6</v>
+        <v>91</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="76" ht="NA" customHeight="1">
       <c r="A76" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B76" s="8" t="s">
-        <v>89</v>
+      <c r="B76" s="8" t="n">
+        <v>1.33</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>89</v>
+        <v>131</v>
+      </c>
+      <c r="D76" s="8" t="n">
+        <v>0.7</v>
       </c>
     </row>
     <row r="77" ht="NA" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B77" s="8" t="s">
         <v>90</v>
@@ -1956,40 +1962,40 @@
         <v>90</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" ht="NA" customHeight="1">
       <c r="A78" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B78" s="8" t="n">
-        <v>2.18</v>
+        <v>68</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D78" s="8" t="n">
-        <v>0.4</v>
+        <v>91</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="79" ht="NA" customHeight="1">
       <c r="A79" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B79" s="8" t="s">
-        <v>89</v>
+      <c r="B79" s="8" t="n">
+        <v>2.38</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>89</v>
+        <v>132</v>
+      </c>
+      <c r="D79" s="8" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="80" ht="NA" customHeight="1">
       <c r="A80" s="3" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B80" s="8" t="s">
         <v>90</v>
@@ -1998,40 +2004,40 @@
         <v>90</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" ht="NA" customHeight="1">
       <c r="A81" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B81" s="8" t="n">
-        <v>1.99</v>
+        <v>68</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D81" s="8" t="n">
-        <v>0.3</v>
+        <v>91</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="82" ht="NA" customHeight="1">
       <c r="A82" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B82" s="8" t="s">
-        <v>89</v>
+      <c r="B82" s="8" t="n">
+        <v>2.51</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>89</v>
+        <v>133</v>
+      </c>
+      <c r="D82" s="8" t="n">
+        <v>0.093</v>
       </c>
     </row>
     <row r="83" ht="NA" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>90</v>
@@ -2040,40 +2046,40 @@
         <v>90</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84" ht="NA" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B84" s="8" t="n">
-        <v>0.83</v>
+        <v>68</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D84" s="8" t="n">
-        <v>0.8</v>
+        <v>91</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="85" ht="NA" customHeight="1">
       <c r="A85" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B85" s="8" t="s">
-        <v>89</v>
+      <c r="B85" s="8" t="n">
+        <v>1.58</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>89</v>
+        <v>134</v>
+      </c>
+      <c r="D85" s="8" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="86" ht="NA" customHeight="1">
       <c r="A86" s="3" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>90</v>
@@ -2082,40 +2088,40 @@
         <v>90</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" ht="NA" customHeight="1">
       <c r="A87" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B87" s="8" t="n">
-        <v>0.65</v>
+        <v>68</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="D87" s="8" t="n">
-        <v>0.5</v>
+        <v>91</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="88" ht="NA" customHeight="1">
       <c r="A88" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B88" s="8" t="s">
-        <v>89</v>
+      <c r="B88" s="8" t="n">
+        <v>0.66</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>89</v>
+        <v>135</v>
+      </c>
+      <c r="D88" s="8" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="89" ht="NA" customHeight="1">
       <c r="A89" s="3" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B89" s="8" t="s">
         <v>90</v>
@@ -2124,40 +2130,40 @@
         <v>90</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90" ht="NA" customHeight="1">
       <c r="A90" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B90" s="8" t="n">
-        <v>4.17</v>
+        <v>68</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D90" s="8" t="n">
-        <v>0.017</v>
+        <v>91</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="91" ht="NA" customHeight="1">
       <c r="A91" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B91" s="8" t="s">
-        <v>89</v>
+      <c r="B91" s="8" t="n">
+        <v>3.46</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>89</v>
+        <v>136</v>
+      </c>
+      <c r="D91" s="8" t="n">
+        <v>0.023</v>
       </c>
     </row>
     <row r="92" ht="NA" customHeight="1">
       <c r="A92" s="3" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="B92" s="8" t="s">
         <v>90</v>
@@ -2166,40 +2172,40 @@
         <v>90</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="93" ht="NA" customHeight="1">
       <c r="A93" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B93" s="8" t="n">
-        <v>1.25</v>
+        <v>68</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D93" s="8" t="n">
-        <v>0.8</v>
+        <v>91</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="94" ht="NA" customHeight="1">
       <c r="A94" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B94" s="8" t="s">
-        <v>89</v>
+      <c r="B94" s="8" t="n">
+        <v>0.91</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>89</v>
+        <v>137</v>
+      </c>
+      <c r="D94" s="8" t="n">
+        <v>0.9</v>
       </c>
     </row>
     <row r="95" ht="NA" customHeight="1">
       <c r="A95" s="3" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="B95" s="8" t="s">
         <v>90</v>
@@ -2208,40 +2214,40 @@
         <v>90</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96" ht="NA" customHeight="1">
       <c r="A96" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B96" s="8" t="n">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>139</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97" ht="NA" customHeight="1">
       <c r="A97" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B97" s="8" t="s">
-        <v>89</v>
+      <c r="B97" s="8" t="n">
+        <v>0.85</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>89</v>
+        <v>138</v>
+      </c>
+      <c r="D97" s="8" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="98" ht="NA" customHeight="1">
       <c r="A98" s="3" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="B98" s="8" t="s">
         <v>90</v>
@@ -2250,40 +2256,54 @@
         <v>90</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="99" ht="NA" customHeight="1">
-      <c r="A99" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B99" s="9" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D99" s="9" t="n">
-        <v>0.014</v>
+      <c r="A99" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="100" ht="NA" customHeight="1">
-      <c r="A100" s="5" t="s">
+      <c r="A100" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B100" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>87</v>
+      <c r="B100" s="9" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D100" s="9" t="n">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="101" ht="NA" customHeight="1">
+      <c r="A101" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A101:D101"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/output/phd9_cat_ordered_logistic.xlsx
+++ b/output/phd9_cat_ordered_logistic.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
   <si>
     <t xml:space="preserve">Characteristic
 </t>
@@ -42,6 +42,9 @@
     <t xml:space="preserve">     Chinese</t>
   </si>
   <si>
+    <t xml:space="preserve">     others</t>
+  </si>
+  <si>
     <t xml:space="preserve">Marital status</t>
   </si>
   <si>
@@ -63,9 +66,6 @@
     <t xml:space="preserve">     Bangkok</t>
   </si>
   <si>
-    <t xml:space="preserve">     others</t>
-  </si>
-  <si>
     <t xml:space="preserve">Education</t>
   </si>
   <si>
@@ -138,7 +138,10 @@
     <t xml:space="preserve">     Gait aid</t>
   </si>
   <si>
-    <t xml:space="preserve">PatientHearing</t>
+    <t xml:space="preserve">Hearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Hearing aid</t>
   </si>
   <si>
     <t xml:space="preserve">     Hearing impairment</t>
@@ -292,149 +295,158 @@
     <t xml:space="preserve">—</t>
   </si>
   <si>
+    <t xml:space="preserve">30,806,241</t>
+  </si>
+  <si>
     <t xml:space="preserve">95% CI
 </t>
   </si>
   <si>
-    <t xml:space="preserve">0.99, 1.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11, 3.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.93, 1.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.02, 4.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.19, 2.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.33, 40.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.20, 4.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.08, 0.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.02, 20.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.03, 15.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.02, 13.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15, 6.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11, 8.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.26, 2.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22, 4.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.07, 3.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.08, 2.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.24, 3.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.58, 15.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.30, 10.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.34, 24.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.04, 1.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.72, 25.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15, 1.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.02, 13.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.21, 9.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.24, 10.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.24, 125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16, 10.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.95, 85.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.64, 6.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.10, 379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.94, 4.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00, 12.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00, 1.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00, 0.60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00, 0.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.40, 5.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35, 5.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.41, 13.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.86, 7.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35, 7.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.21, 2.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19, 10.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.20, 4.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.27, 2.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70, 34.1</t>
+    <t xml:space="preserve">0.97, 1.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16, 6.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.91, 1.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.02, 4.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30,805,802, 30,806,681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.19, 2.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.27, 32.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23, 5.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.09, 1.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.02, 22.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.03, 17.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.03, 16.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.08, 5.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12, 9.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25, 2.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.18, 4.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.06, 3.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.07, 2.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.19, 3.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.60, 16.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.21, 8.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.28, 20.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.05, 3.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00, 0.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.69, 23.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.18, 1.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.03, 30.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.28, 16.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.24, 11.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.30, 189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15, 10.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.73, 64.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.70, 7.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11, 531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.99, 5.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00, 23.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00, 1.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00, 0.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00, 1.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.40, 5.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.37, 5.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.33, 11.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.60, 5.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35, 7.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25, 2.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11, 9.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.22, 4.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.30, 3.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01, 24.0</t>
   </si>
   <si>
     <t xml:space="preserve">p-value
@@ -442,6 +454,9 @@
   </si>
   <si>
     <t xml:space="preserve">&gt;0.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;0.001</t>
   </si>
 </sst>
 </file>
@@ -892,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" ht="NA" customHeight="1">
@@ -906,13 +921,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D2" s="7" t="n">
-        <v>0.088</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3" ht="NA" customHeight="1">
@@ -920,13 +935,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" ht="NA" customHeight="1">
@@ -934,13 +949,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" ht="NA" customHeight="1">
@@ -948,13 +963,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="8" t="n">
-        <v>0.6</v>
+        <v>96</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="6" ht="NA" customHeight="1">
@@ -962,13 +977,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D6" s="8" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" ht="NA" customHeight="1">
@@ -976,13 +991,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" ht="NA" customHeight="1">
@@ -990,13 +1005,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" ht="NA" customHeight="1">
@@ -1004,10 +1019,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="n">
-        <v>0.29</v>
+        <v>0.32</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D9" s="8" t="n">
         <v>0.4</v>
@@ -1018,13 +1033,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>90</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" ht="NA" customHeight="1">
@@ -1038,21 +1053,21 @@
         <v>91</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" ht="NA" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="n">
-        <v>0.73</v>
+      <c r="B12" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="8" t="n">
-        <v>0.7</v>
+        <v>92</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="13" ht="NA" customHeight="1">
@@ -1060,13 +1075,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="n">
-        <v>3.64</v>
+        <v>0.75</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D13" s="8" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="14" ht="NA" customHeight="1">
@@ -1074,27 +1089,27 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="n">
-        <v>0.96</v>
+        <v>2.99</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>141</v>
+        <v>101</v>
+      </c>
+      <c r="D14" s="8" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="15" ht="NA" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>90</v>
+      <c r="B15" s="8" t="n">
+        <v>1.08</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>90</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" ht="NA" customHeight="1">
@@ -1108,40 +1123,40 @@
         <v>91</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" ht="NA" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="n">
-        <v>0.29</v>
+      <c r="B17" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D17" s="8" t="n">
-        <v>0.048</v>
+        <v>92</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="18" ht="NA" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>90</v>
+        <v>9</v>
+      </c>
+      <c r="B18" s="8" t="n">
+        <v>0.3</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>90</v>
+        <v>103</v>
+      </c>
+      <c r="D18" s="8" t="n">
+        <v>0.055</v>
       </c>
     </row>
     <row r="19" ht="NA" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>91</v>
@@ -1150,68 +1165,68 @@
         <v>91</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" ht="NA" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="8" t="n">
-        <v>0.68</v>
+        <v>18</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D20" s="8" t="n">
-        <v>0.8</v>
+        <v>92</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="21" ht="NA" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="8" t="n">
-        <v>0.62</v>
+        <v>0.72</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D21" s="8" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="22" ht="NA" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="8" t="n">
-        <v>0.56</v>
+        <v>0.71</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D22" s="8" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="23" ht="NA" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>90</v>
+        <v>21</v>
+      </c>
+      <c r="B23" s="8" t="n">
+        <v>0.67</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>90</v>
+        <v>106</v>
+      </c>
+      <c r="D23" s="8" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="24" ht="NA" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>91</v>
@@ -1220,68 +1235,68 @@
         <v>91</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" ht="NA" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="8" t="n">
-        <v>0.99</v>
+        <v>23</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" ht="NA" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="8" t="n">
-        <v>0.97</v>
+        <v>0.66</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>141</v>
+        <v>107</v>
+      </c>
+      <c r="D26" s="8" t="n">
+        <v>0.7</v>
       </c>
     </row>
     <row r="27" ht="NA" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="8" t="n">
-        <v>0.79</v>
+        <v>1.02</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D27" s="8" t="n">
-        <v>0.7</v>
+        <v>108</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="28" ht="NA" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>90</v>
+        <v>26</v>
+      </c>
+      <c r="B28" s="8" t="n">
+        <v>0.79</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>90</v>
+        <v>109</v>
+      </c>
+      <c r="D28" s="8" t="n">
+        <v>0.7</v>
       </c>
     </row>
     <row r="29" ht="NA" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>91</v>
@@ -1290,46 +1305,46 @@
         <v>91</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" ht="NA" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="8" t="n">
-        <v>1.04</v>
+        <v>28</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" ht="NA" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="8" t="n">
-        <v>0.53</v>
+        <v>0.9</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D31" s="8" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="32" ht="NA" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="8" t="n">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D32" s="8" t="n">
         <v>0.4</v>
@@ -1337,35 +1352,35 @@
     </row>
     <row r="33" ht="NA" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="8" t="n">
-        <v>0.97</v>
+        <v>0.43</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>141</v>
+        <v>112</v>
+      </c>
+      <c r="D33" s="8" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="34" ht="NA" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>90</v>
+        <v>32</v>
+      </c>
+      <c r="B34" s="8" t="n">
+        <v>0.78</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>90</v>
+        <v>113</v>
+      </c>
+      <c r="D34" s="8" t="n">
+        <v>0.7</v>
       </c>
     </row>
     <row r="35" ht="NA" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>91</v>
@@ -1374,68 +1389,68 @@
         <v>91</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" ht="NA" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="8" t="n">
-        <v>3.01</v>
+        <v>34</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D36" s="8" t="n">
-        <v>0.2</v>
+        <v>92</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="37" ht="NA" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="8" t="n">
-        <v>1.74</v>
+        <v>3.11</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="38" ht="NA" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="8" t="n">
-        <v>2.88</v>
+        <v>1.36</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="39" ht="NA" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>90</v>
+        <v>37</v>
+      </c>
+      <c r="B39" s="8" t="n">
+        <v>2.4</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>90</v>
+        <v>116</v>
+      </c>
+      <c r="D39" s="8" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="40" ht="NA" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>91</v>
@@ -1444,40 +1459,40 @@
         <v>91</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" ht="NA" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="8" t="n">
-        <v>0.26</v>
+        <v>39</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D41" s="8" t="n">
-        <v>0.2</v>
+        <v>92</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="42" ht="NA" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>90</v>
+        <v>40</v>
+      </c>
+      <c r="B42" s="8" t="n">
+        <v>0.4</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>90</v>
+        <v>117</v>
+      </c>
+      <c r="D42" s="8" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="43" ht="NA" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>91</v>
@@ -1486,824 +1501,852 @@
         <v>91</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" ht="NA" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" s="8" t="n">
-        <v>4.27</v>
+        <v>39</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D44" s="8" t="n">
-        <v>0.11</v>
+        <v>92</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="45" ht="NA" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>90</v>
+        <v>42</v>
+      </c>
+      <c r="B45" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>90</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" ht="NA" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>91</v>
+        <v>43</v>
+      </c>
+      <c r="B46" s="8" t="n">
+        <v>4.04</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>90</v>
+        <v>119</v>
+      </c>
+      <c r="D46" s="8" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="47" ht="NA" customHeight="1">
       <c r="A47" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="8" t="n">
-        <v>0.46</v>
+      <c r="B47" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D47" s="8" t="n">
-        <v>0.2</v>
+        <v>91</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="48" ht="NA" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" ht="NA" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>91</v>
+        <v>45</v>
+      </c>
+      <c r="B49" s="8" t="n">
+        <v>0.56</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>90</v>
+        <v>120</v>
+      </c>
+      <c r="D49" s="8" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="50" ht="NA" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B50" s="8" t="n">
-        <v>0.53</v>
+        <v>46</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D50" s="8" t="n">
-        <v>0.7</v>
+        <v>91</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="51" ht="NA" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B51" s="8" t="n">
-        <v>1.39</v>
+        <v>47</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D51" s="8" t="n">
-        <v>0.7</v>
+        <v>92</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="52" ht="NA" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>90</v>
+        <v>48</v>
+      </c>
+      <c r="B52" s="8" t="n">
+        <v>0.91</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>90</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" ht="NA" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>91</v>
+        <v>49</v>
+      </c>
+      <c r="B53" s="8" t="n">
+        <v>2.18</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>90</v>
+        <v>122</v>
+      </c>
+      <c r="D53" s="8" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="54" ht="NA" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B54" s="8" t="n">
-        <v>1.6</v>
+        <v>50</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D54" s="8" t="n">
-        <v>0.6</v>
+        <v>91</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="55" ht="NA" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B55" s="8" t="n">
-        <v>5.44</v>
+        <v>51</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D55" s="8" t="n">
-        <v>0.3</v>
+        <v>92</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="56" ht="NA" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>90</v>
+        <v>52</v>
+      </c>
+      <c r="B56" s="8" t="n">
+        <v>1.63</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>90</v>
+        <v>123</v>
+      </c>
+      <c r="D56" s="8" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="57" ht="NA" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>91</v>
+        <v>53</v>
+      </c>
+      <c r="B57" s="8" t="n">
+        <v>7.54</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>90</v>
+        <v>124</v>
+      </c>
+      <c r="D57" s="8" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="58" ht="NA" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B58" s="8" t="n">
-        <v>1.29</v>
+        <v>54</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D58" s="8" t="n">
-        <v>0.8</v>
+        <v>91</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="59" ht="NA" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B59" s="8" t="n">
-        <v>9</v>
+        <v>55</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D59" s="8" t="n">
-        <v>0.055</v>
+        <v>92</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="60" ht="NA" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
+      </c>
+      <c r="B60" s="8" t="n">
+        <v>1.25</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>90</v>
+        <v>125</v>
+      </c>
+      <c r="D60" s="8" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="61" ht="NA" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>91</v>
+        <v>57</v>
+      </c>
+      <c r="B61" s="8" t="n">
+        <v>6.86</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>90</v>
+        <v>126</v>
+      </c>
+      <c r="D61" s="8" t="n">
+        <v>0.092</v>
       </c>
     </row>
     <row r="62" ht="NA" customHeight="1">
       <c r="A62" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B62" s="8" t="n">
-        <v>2.03</v>
+      <c r="B62" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D62" s="8" t="n">
-        <v>0.2</v>
+        <v>91</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="63" ht="NA" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B63" s="8" t="n">
-        <v>6.02</v>
+        <v>39</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D63" s="8" t="n">
-        <v>0.4</v>
+        <v>92</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="64" ht="NA" customHeight="1">
       <c r="A64" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B64" s="8" t="n">
-        <v>2.12</v>
+        <v>2.29</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D64" s="8" t="n">
-        <v>0.071</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="65" ht="NA" customHeight="1">
       <c r="A65" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>90</v>
+        <v>60</v>
+      </c>
+      <c r="B65" s="8" t="n">
+        <v>7.67</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>90</v>
+        <v>128</v>
+      </c>
+      <c r="D65" s="8" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="66" ht="NA" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>91</v>
+        <v>61</v>
+      </c>
+      <c r="B66" s="8" t="n">
+        <v>2.23</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>90</v>
+        <v>129</v>
+      </c>
+      <c r="D66" s="8" t="n">
+        <v>0.054</v>
       </c>
     </row>
     <row r="67" ht="NA" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B67" s="8" t="n">
-        <v>0.05</v>
+        <v>62</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D67" s="8" t="n">
-        <v>0.3</v>
+        <v>91</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="68" ht="NA" customHeight="1">
       <c r="A68" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B68" s="8" t="n">
-        <v>0.01</v>
+        <v>63</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D68" s="8" t="n">
-        <v>0.076</v>
+        <v>92</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="69" ht="NA" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B69" s="8" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D69" s="8" t="n">
-        <v>0.03</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="70" ht="NA" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B70" s="8" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D70" s="8" t="n">
-        <v>0.038</v>
+        <v>0.084</v>
       </c>
     </row>
     <row r="71" ht="NA" customHeight="1">
       <c r="A71" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>90</v>
+        <v>66</v>
+      </c>
+      <c r="B71" s="8" t="n">
+        <v>0.01</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>90</v>
+        <v>132</v>
+      </c>
+      <c r="D71" s="8" t="n">
+        <v>0.038</v>
       </c>
     </row>
     <row r="72" ht="NA" customHeight="1">
       <c r="A72" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>91</v>
+        <v>67</v>
+      </c>
+      <c r="B72" s="8" t="n">
+        <v>0.01</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>90</v>
+        <v>133</v>
+      </c>
+      <c r="D72" s="8" t="n">
+        <v>0.059</v>
       </c>
     </row>
     <row r="73" ht="NA" customHeight="1">
       <c r="A73" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B73" s="8" t="n">
-        <v>1.43</v>
+        <v>68</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D73" s="8" t="n">
-        <v>0.6</v>
+        <v>91</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="74" ht="NA" customHeight="1">
       <c r="A74" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" ht="NA" customHeight="1">
       <c r="A75" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>91</v>
+        <v>70</v>
+      </c>
+      <c r="B75" s="8" t="n">
+        <v>1.47</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>90</v>
+        <v>134</v>
+      </c>
+      <c r="D75" s="8" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="76" ht="NA" customHeight="1">
       <c r="A76" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B76" s="8" t="n">
-        <v>1.33</v>
+      <c r="B76" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D76" s="8" t="n">
-        <v>0.7</v>
+        <v>91</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="77" ht="NA" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" ht="NA" customHeight="1">
       <c r="A78" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>91</v>
+        <v>72</v>
+      </c>
+      <c r="B78" s="8" t="n">
+        <v>1.36</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>90</v>
+        <v>135</v>
+      </c>
+      <c r="D78" s="8" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="79" ht="NA" customHeight="1">
       <c r="A79" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B79" s="8" t="n">
-        <v>2.38</v>
+      <c r="B79" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D79" s="8" t="n">
-        <v>0.3</v>
+        <v>91</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="80" ht="NA" customHeight="1">
       <c r="A80" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" ht="NA" customHeight="1">
       <c r="A81" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>91</v>
+        <v>74</v>
+      </c>
+      <c r="B81" s="8" t="n">
+        <v>1.95</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>90</v>
+        <v>136</v>
+      </c>
+      <c r="D81" s="8" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="82" ht="NA" customHeight="1">
       <c r="A82" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B82" s="8" t="n">
-        <v>2.51</v>
+      <c r="B82" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="D82" s="8" t="n">
-        <v>0.093</v>
+        <v>91</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="83" ht="NA" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84" ht="NA" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>91</v>
+        <v>76</v>
+      </c>
+      <c r="B84" s="8" t="n">
+        <v>1.84</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>90</v>
+        <v>137</v>
+      </c>
+      <c r="D84" s="8" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="85" ht="NA" customHeight="1">
       <c r="A85" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B85" s="8" t="n">
-        <v>1.58</v>
+      <c r="B85" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D85" s="8" t="n">
-        <v>0.6</v>
+        <v>91</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="86" ht="NA" customHeight="1">
       <c r="A86" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="87" ht="NA" customHeight="1">
       <c r="A87" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>91</v>
+        <v>78</v>
+      </c>
+      <c r="B87" s="8" t="n">
+        <v>1.6</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>90</v>
+        <v>138</v>
+      </c>
+      <c r="D87" s="8" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="88" ht="NA" customHeight="1">
       <c r="A88" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B88" s="8" t="n">
-        <v>0.66</v>
+      <c r="B88" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D88" s="8" t="n">
-        <v>0.5</v>
+        <v>91</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="89" ht="NA" customHeight="1">
       <c r="A89" s="3" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="90" ht="NA" customHeight="1">
       <c r="A90" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>91</v>
+        <v>80</v>
+      </c>
+      <c r="B90" s="8" t="n">
+        <v>0.8</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>90</v>
+        <v>139</v>
+      </c>
+      <c r="D90" s="8" t="n">
+        <v>0.7</v>
       </c>
     </row>
     <row r="91" ht="NA" customHeight="1">
       <c r="A91" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B91" s="8" t="n">
-        <v>3.46</v>
+      <c r="B91" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D91" s="8" t="n">
-        <v>0.023</v>
+        <v>91</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="92" ht="NA" customHeight="1">
       <c r="A92" s="3" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" ht="NA" customHeight="1">
       <c r="A93" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>91</v>
+        <v>82</v>
+      </c>
+      <c r="B93" s="8" t="n">
+        <v>3.17</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>90</v>
+        <v>140</v>
+      </c>
+      <c r="D93" s="8" t="n">
+        <v>0.031</v>
       </c>
     </row>
     <row r="94" ht="NA" customHeight="1">
       <c r="A94" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B94" s="8" t="n">
-        <v>0.91</v>
+      <c r="B94" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D94" s="8" t="n">
-        <v>0.9</v>
+        <v>91</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="95" ht="NA" customHeight="1">
       <c r="A95" s="3" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="96" ht="NA" customHeight="1">
       <c r="A96" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>91</v>
+        <v>84</v>
+      </c>
+      <c r="B96" s="8" t="n">
+        <v>1.01</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>90</v>
+        <v>145</v>
       </c>
     </row>
     <row r="97" ht="NA" customHeight="1">
       <c r="A97" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B97" s="8" t="n">
-        <v>0.85</v>
+      <c r="B97" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="D97" s="8" t="n">
-        <v>0.8</v>
+        <v>91</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="98" ht="NA" customHeight="1">
       <c r="A98" s="3" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="99" ht="NA" customHeight="1">
       <c r="A99" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>91</v>
+        <v>86</v>
+      </c>
+      <c r="B99" s="8" t="n">
+        <v>0.95</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>90</v>
+        <v>145</v>
       </c>
     </row>
     <row r="100" ht="NA" customHeight="1">
-      <c r="A100" s="4" t="s">
+      <c r="A100" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B100" s="9" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="D100" s="9" t="n">
-        <v>0.008</v>
+      <c r="B100" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="101" ht="NA" customHeight="1">
-      <c r="A101" s="5" t="s">
+      <c r="A101" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="102" ht="NA" customHeight="1">
+      <c r="A102" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B101" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>88</v>
+      <c r="B102" s="9" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D102" s="9" t="n">
+        <v>0.048</v>
+      </c>
+    </row>
+    <row r="103" ht="NA" customHeight="1">
+      <c r="A103" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A103:D103"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/output/phd9_cat_ordered_logistic.xlsx
+++ b/output/phd9_cat_ordered_logistic.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
   <si>
     <t xml:space="preserve">Characteristic
 </t>
@@ -42,30 +42,30 @@
     <t xml:space="preserve">     Chinese</t>
   </si>
   <si>
+    <t xml:space="preserve">Marital status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     single</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     married</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     divorced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     widow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Bangkok</t>
+  </si>
+  <si>
     <t xml:space="preserve">     others</t>
   </si>
   <si>
-    <t xml:space="preserve">Marital status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     single</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     married</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     divorced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     widow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Bangkok</t>
-  </si>
-  <si>
     <t xml:space="preserve">Education</t>
   </si>
   <si>
@@ -138,10 +138,7 @@
     <t xml:space="preserve">     Gait aid</t>
   </si>
   <si>
-    <t xml:space="preserve">Hearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Hearing aid</t>
+    <t xml:space="preserve">PatientHearing</t>
   </si>
   <si>
     <t xml:space="preserve">     Hearing impairment</t>
@@ -295,158 +292,149 @@
     <t xml:space="preserve">—</t>
   </si>
   <si>
-    <t xml:space="preserve">30,806,241</t>
-  </si>
-  <si>
     <t xml:space="preserve">95% CI
 </t>
   </si>
   <si>
-    <t xml:space="preserve">0.97, 1.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16, 6.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.91, 1.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.02, 4.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30,805,802, 30,806,681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.19, 2.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.27, 32.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23, 5.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.09, 1.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.02, 22.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.03, 17.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.03, 16.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.08, 5.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12, 9.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25, 2.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.18, 4.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.06, 3.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.07, 2.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.19, 3.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.60, 16.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.21, 8.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.28, 20.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.05, 3.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00, 0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.69, 23.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.18, 1.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.03, 30.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.28, 16.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.24, 11.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.30, 189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15, 10.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.73, 64.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.70, 7.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11, 531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.99, 5.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00, 23.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00, 1.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00, 0.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00, 1.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.40, 5.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.37, 5.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.33, 11.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.60, 5.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35, 7.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25, 2.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11, 9.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22, 4.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.30, 3.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01, 24.0</t>
+    <t xml:space="preserve">0.99, 1.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11, 3.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.93, 1.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.02, 4.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.19, 2.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.33, 40.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.20, 4.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.08, 0.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.02, 20.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.03, 15.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.02, 13.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15, 6.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11, 8.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.26, 2.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.22, 4.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.07, 3.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.08, 2.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.24, 3.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.58, 15.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.30, 10.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.34, 24.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.04, 1.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.72, 25.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15, 1.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.02, 13.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.21, 9.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.24, 10.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.24, 125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16, 10.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95, 85.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.64, 6.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.10, 379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.94, 4.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00, 12.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00, 1.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00, 0.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00, 0.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.40, 5.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35, 5.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.41, 13.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.86, 7.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35, 7.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.21, 2.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19, 10.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.20, 4.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.27, 2.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70, 34.1</t>
   </si>
   <si>
     <t xml:space="preserve">p-value
@@ -454,9 +442,6 @@
   </si>
   <si>
     <t xml:space="preserve">&gt;0.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;0.001</t>
   </si>
 </sst>
 </file>
@@ -907,13 +892,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" ht="NA" customHeight="1">
@@ -921,13 +906,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D2" s="7" t="n">
-        <v>0.2</v>
+        <v>0.088</v>
       </c>
     </row>
     <row r="3" ht="NA" customHeight="1">
@@ -935,13 +920,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" ht="NA" customHeight="1">
@@ -949,13 +934,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" ht="NA" customHeight="1">
@@ -963,13 +948,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>145</v>
+        <v>94</v>
+      </c>
+      <c r="D5" s="8" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="6" ht="NA" customHeight="1">
@@ -977,13 +962,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D6" s="8" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="7" ht="NA" customHeight="1">
@@ -991,13 +976,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" ht="NA" customHeight="1">
@@ -1005,13 +990,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" ht="NA" customHeight="1">
@@ -1019,10 +1004,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="n">
-        <v>0.32</v>
+        <v>0.29</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D9" s="8" t="n">
         <v>0.4</v>
@@ -1033,13 +1018,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>146</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" ht="NA" customHeight="1">
@@ -1053,21 +1038,21 @@
         <v>91</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" ht="NA" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>92</v>
+      <c r="B12" s="8" t="n">
+        <v>0.73</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>91</v>
+        <v>97</v>
+      </c>
+      <c r="D12" s="8" t="n">
+        <v>0.7</v>
       </c>
     </row>
     <row r="13" ht="NA" customHeight="1">
@@ -1075,13 +1060,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="n">
-        <v>0.75</v>
+        <v>3.64</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D13" s="8" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="14" ht="NA" customHeight="1">
@@ -1089,27 +1074,27 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="n">
-        <v>2.99</v>
+        <v>0.96</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" s="8" t="n">
-        <v>0.4</v>
+        <v>99</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="15" ht="NA" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="n">
-        <v>1.08</v>
+      <c r="B15" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>145</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" ht="NA" customHeight="1">
@@ -1123,40 +1108,40 @@
         <v>91</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" ht="NA" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>92</v>
+      <c r="B17" s="8" t="n">
+        <v>0.29</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>91</v>
+        <v>100</v>
+      </c>
+      <c r="D17" s="8" t="n">
+        <v>0.048</v>
       </c>
     </row>
     <row r="18" ht="NA" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="8" t="n">
-        <v>0.3</v>
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D18" s="8" t="n">
-        <v>0.055</v>
+        <v>90</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="19" ht="NA" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>91</v>
@@ -1165,68 +1150,68 @@
         <v>91</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" ht="NA" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>92</v>
+        <v>19</v>
+      </c>
+      <c r="B20" s="8" t="n">
+        <v>0.68</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>91</v>
+        <v>101</v>
+      </c>
+      <c r="D20" s="8" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="21" ht="NA" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="8" t="n">
-        <v>0.72</v>
+        <v>0.62</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D21" s="8" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="22" ht="NA" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="8" t="n">
-        <v>0.71</v>
+        <v>0.56</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D22" s="8" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="23" ht="NA" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="8" t="n">
-        <v>0.67</v>
+        <v>22</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D23" s="8" t="n">
-        <v>0.8</v>
+        <v>90</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="24" ht="NA" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>91</v>
@@ -1235,68 +1220,68 @@
         <v>91</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" ht="NA" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>92</v>
+        <v>24</v>
+      </c>
+      <c r="B25" s="8" t="n">
+        <v>0.99</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" ht="NA" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="8" t="n">
-        <v>0.66</v>
+        <v>0.97</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D26" s="8" t="n">
-        <v>0.7</v>
+        <v>105</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="27" ht="NA" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="8" t="n">
-        <v>1.02</v>
+        <v>0.79</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>145</v>
+        <v>106</v>
+      </c>
+      <c r="D27" s="8" t="n">
+        <v>0.7</v>
       </c>
     </row>
     <row r="28" ht="NA" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="8" t="n">
-        <v>0.79</v>
+        <v>27</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D28" s="8" t="n">
-        <v>0.7</v>
+        <v>90</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="29" ht="NA" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>91</v>
@@ -1305,46 +1290,46 @@
         <v>91</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" ht="NA" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>92</v>
+        <v>29</v>
+      </c>
+      <c r="B30" s="8" t="n">
+        <v>1.04</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" ht="NA" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="8" t="n">
-        <v>0.9</v>
+        <v>0.53</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D31" s="8" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="32" ht="NA" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="8" t="n">
-        <v>0.46</v>
+        <v>0.49</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D32" s="8" t="n">
         <v>0.4</v>
@@ -1352,35 +1337,35 @@
     </row>
     <row r="33" ht="NA" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="8" t="n">
-        <v>0.43</v>
+        <v>0.97</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D33" s="8" t="n">
-        <v>0.4</v>
+        <v>110</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="34" ht="NA" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="8" t="n">
-        <v>0.78</v>
+        <v>33</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D34" s="8" t="n">
-        <v>0.7</v>
+        <v>90</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="35" ht="NA" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>91</v>
@@ -1389,68 +1374,68 @@
         <v>91</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" ht="NA" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>92</v>
+        <v>35</v>
+      </c>
+      <c r="B36" s="8" t="n">
+        <v>3.01</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>91</v>
+        <v>111</v>
+      </c>
+      <c r="D36" s="8" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="37" ht="NA" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="8" t="n">
-        <v>3.11</v>
+        <v>1.74</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="38" ht="NA" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="8" t="n">
-        <v>1.36</v>
+        <v>2.88</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="39" ht="NA" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="8" t="n">
-        <v>2.4</v>
+        <v>38</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D39" s="8" t="n">
-        <v>0.4</v>
+        <v>90</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="40" ht="NA" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>91</v>
@@ -1459,40 +1444,40 @@
         <v>91</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" ht="NA" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>92</v>
+        <v>40</v>
+      </c>
+      <c r="B41" s="8" t="n">
+        <v>0.26</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>91</v>
+        <v>114</v>
+      </c>
+      <c r="D41" s="8" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="42" ht="NA" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="8" t="n">
-        <v>0.4</v>
+        <v>41</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D42" s="8" t="n">
-        <v>0.4</v>
+        <v>90</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="43" ht="NA" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>91</v>
@@ -1501,852 +1486,824 @@
         <v>91</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" ht="NA" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>92</v>
+        <v>42</v>
+      </c>
+      <c r="B44" s="8" t="n">
+        <v>4.27</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>91</v>
+        <v>115</v>
+      </c>
+      <c r="D44" s="8" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="45" ht="NA" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" s="8" t="n">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>146</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" ht="NA" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46" s="8" t="n">
-        <v>4.04</v>
+        <v>39</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D46" s="8" t="n">
-        <v>0.12</v>
+        <v>91</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="47" ht="NA" customHeight="1">
       <c r="A47" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="8" t="s">
-        <v>91</v>
+      <c r="B47" s="8" t="n">
+        <v>0.46</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>91</v>
+        <v>116</v>
+      </c>
+      <c r="D47" s="8" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="48" ht="NA" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" ht="NA" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B49" s="8" t="n">
-        <v>0.56</v>
+        <v>46</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D49" s="8" t="n">
-        <v>0.3</v>
+        <v>91</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="50" ht="NA" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>91</v>
+        <v>47</v>
+      </c>
+      <c r="B50" s="8" t="n">
+        <v>0.53</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>91</v>
+        <v>117</v>
+      </c>
+      <c r="D50" s="8" t="n">
+        <v>0.7</v>
       </c>
     </row>
     <row r="51" ht="NA" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>92</v>
+        <v>48</v>
+      </c>
+      <c r="B51" s="8" t="n">
+        <v>1.39</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>91</v>
+        <v>118</v>
+      </c>
+      <c r="D51" s="8" t="n">
+        <v>0.7</v>
       </c>
     </row>
     <row r="52" ht="NA" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B52" s="8" t="n">
-        <v>0.91</v>
+        <v>49</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>145</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" ht="NA" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B53" s="8" t="n">
-        <v>2.18</v>
+        <v>50</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D53" s="8" t="n">
-        <v>0.5</v>
+        <v>91</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="54" ht="NA" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>91</v>
+        <v>51</v>
+      </c>
+      <c r="B54" s="8" t="n">
+        <v>1.6</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>91</v>
+        <v>119</v>
+      </c>
+      <c r="D54" s="8" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="55" ht="NA" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>92</v>
+        <v>52</v>
+      </c>
+      <c r="B55" s="8" t="n">
+        <v>5.44</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>91</v>
+        <v>120</v>
+      </c>
+      <c r="D55" s="8" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="56" ht="NA" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B56" s="8" t="n">
-        <v>1.63</v>
+        <v>53</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D56" s="8" t="n">
-        <v>0.6</v>
+        <v>90</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="57" ht="NA" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B57" s="8" t="n">
-        <v>7.54</v>
+        <v>54</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D57" s="8" t="n">
-        <v>0.2</v>
+        <v>91</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="58" ht="NA" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>91</v>
+        <v>55</v>
+      </c>
+      <c r="B58" s="8" t="n">
+        <v>1.29</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>91</v>
+        <v>121</v>
+      </c>
+      <c r="D58" s="8" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="59" ht="NA" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>92</v>
+        <v>56</v>
+      </c>
+      <c r="B59" s="8" t="n">
+        <v>9</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>91</v>
+        <v>122</v>
+      </c>
+      <c r="D59" s="8" t="n">
+        <v>0.055</v>
       </c>
     </row>
     <row r="60" ht="NA" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B60" s="8" t="n">
-        <v>1.25</v>
+        <v>57</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D60" s="8" t="n">
-        <v>0.8</v>
+        <v>90</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="61" ht="NA" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B61" s="8" t="n">
-        <v>6.86</v>
+        <v>39</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D61" s="8" t="n">
-        <v>0.092</v>
+        <v>91</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="62" ht="NA" customHeight="1">
       <c r="A62" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B62" s="8" t="s">
-        <v>91</v>
+      <c r="B62" s="8" t="n">
+        <v>2.03</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>91</v>
+        <v>123</v>
+      </c>
+      <c r="D62" s="8" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="63" ht="NA" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>92</v>
+        <v>59</v>
+      </c>
+      <c r="B63" s="8" t="n">
+        <v>6.02</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>91</v>
+        <v>124</v>
+      </c>
+      <c r="D63" s="8" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="64" ht="NA" customHeight="1">
       <c r="A64" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B64" s="8" t="n">
-        <v>2.29</v>
+        <v>2.12</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D64" s="8" t="n">
-        <v>0.2</v>
+        <v>0.071</v>
       </c>
     </row>
     <row r="65" ht="NA" customHeight="1">
       <c r="A65" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B65" s="8" t="n">
-        <v>7.67</v>
+        <v>61</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D65" s="8" t="n">
-        <v>0.3</v>
+        <v>90</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="66" ht="NA" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B66" s="8" t="n">
-        <v>2.23</v>
+        <v>62</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D66" s="8" t="n">
-        <v>0.054</v>
+        <v>91</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="67" ht="NA" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>91</v>
+        <v>63</v>
+      </c>
+      <c r="B67" s="8" t="n">
+        <v>0.05</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>91</v>
+        <v>126</v>
+      </c>
+      <c r="D67" s="8" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="68" ht="NA" customHeight="1">
       <c r="A68" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>92</v>
+        <v>64</v>
+      </c>
+      <c r="B68" s="8" t="n">
+        <v>0.01</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>91</v>
+        <v>127</v>
+      </c>
+      <c r="D68" s="8" t="n">
+        <v>0.076</v>
       </c>
     </row>
     <row r="69" ht="NA" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B69" s="8" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D69" s="8" t="n">
-        <v>0.4</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="70" ht="NA" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B70" s="8" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D70" s="8" t="n">
-        <v>0.084</v>
+        <v>0.038</v>
       </c>
     </row>
     <row r="71" ht="NA" customHeight="1">
       <c r="A71" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B71" s="8" t="n">
-        <v>0.01</v>
+        <v>67</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D71" s="8" t="n">
-        <v>0.038</v>
+        <v>90</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="72" ht="NA" customHeight="1">
       <c r="A72" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B72" s="8" t="n">
-        <v>0.01</v>
+        <v>68</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="D72" s="8" t="n">
-        <v>0.059</v>
+        <v>91</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="73" ht="NA" customHeight="1">
       <c r="A73" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>91</v>
+        <v>69</v>
+      </c>
+      <c r="B73" s="8" t="n">
+        <v>1.43</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>91</v>
+        <v>130</v>
+      </c>
+      <c r="D73" s="8" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="74" ht="NA" customHeight="1">
       <c r="A74" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" ht="NA" customHeight="1">
       <c r="A75" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B75" s="8" t="n">
-        <v>1.47</v>
+        <v>68</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D75" s="8" t="n">
-        <v>0.6</v>
+        <v>91</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="76" ht="NA" customHeight="1">
       <c r="A76" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B76" s="8" t="s">
-        <v>91</v>
+      <c r="B76" s="8" t="n">
+        <v>1.33</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>91</v>
+        <v>131</v>
+      </c>
+      <c r="D76" s="8" t="n">
+        <v>0.7</v>
       </c>
     </row>
     <row r="77" ht="NA" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" ht="NA" customHeight="1">
       <c r="A78" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B78" s="8" t="n">
-        <v>1.36</v>
+        <v>68</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D78" s="8" t="n">
-        <v>0.6</v>
+        <v>91</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="79" ht="NA" customHeight="1">
       <c r="A79" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B79" s="8" t="s">
-        <v>91</v>
+      <c r="B79" s="8" t="n">
+        <v>2.38</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>91</v>
+        <v>132</v>
+      </c>
+      <c r="D79" s="8" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="80" ht="NA" customHeight="1">
       <c r="A80" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" ht="NA" customHeight="1">
       <c r="A81" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B81" s="8" t="n">
-        <v>1.95</v>
+        <v>68</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D81" s="8" t="n">
-        <v>0.5</v>
+        <v>91</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="82" ht="NA" customHeight="1">
       <c r="A82" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B82" s="8" t="s">
-        <v>91</v>
+      <c r="B82" s="8" t="n">
+        <v>2.51</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>91</v>
+        <v>133</v>
+      </c>
+      <c r="D82" s="8" t="n">
+        <v>0.093</v>
       </c>
     </row>
     <row r="83" ht="NA" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84" ht="NA" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B84" s="8" t="n">
-        <v>1.84</v>
+        <v>68</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D84" s="8" t="n">
-        <v>0.3</v>
+        <v>91</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="85" ht="NA" customHeight="1">
       <c r="A85" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B85" s="8" t="s">
-        <v>91</v>
+      <c r="B85" s="8" t="n">
+        <v>1.58</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>91</v>
+        <v>134</v>
+      </c>
+      <c r="D85" s="8" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="86" ht="NA" customHeight="1">
       <c r="A86" s="3" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" ht="NA" customHeight="1">
       <c r="A87" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B87" s="8" t="n">
-        <v>1.6</v>
+        <v>68</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="D87" s="8" t="n">
-        <v>0.5</v>
+        <v>91</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="88" ht="NA" customHeight="1">
       <c r="A88" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B88" s="8" t="s">
-        <v>91</v>
+      <c r="B88" s="8" t="n">
+        <v>0.66</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>91</v>
+        <v>135</v>
+      </c>
+      <c r="D88" s="8" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="89" ht="NA" customHeight="1">
       <c r="A89" s="3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90" ht="NA" customHeight="1">
       <c r="A90" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B90" s="8" t="n">
-        <v>0.8</v>
+        <v>68</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="D90" s="8" t="n">
-        <v>0.7</v>
+        <v>91</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="91" ht="NA" customHeight="1">
       <c r="A91" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B91" s="8" t="s">
-        <v>91</v>
+      <c r="B91" s="8" t="n">
+        <v>3.46</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>91</v>
+        <v>136</v>
+      </c>
+      <c r="D91" s="8" t="n">
+        <v>0.023</v>
       </c>
     </row>
     <row r="92" ht="NA" customHeight="1">
       <c r="A92" s="3" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="93" ht="NA" customHeight="1">
       <c r="A93" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B93" s="8" t="n">
-        <v>3.17</v>
+        <v>68</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D93" s="8" t="n">
-        <v>0.031</v>
+        <v>91</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="94" ht="NA" customHeight="1">
       <c r="A94" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B94" s="8" t="s">
-        <v>91</v>
+      <c r="B94" s="8" t="n">
+        <v>0.91</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>91</v>
+        <v>137</v>
+      </c>
+      <c r="D94" s="8" t="n">
+        <v>0.9</v>
       </c>
     </row>
     <row r="95" ht="NA" customHeight="1">
       <c r="A95" s="3" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96" ht="NA" customHeight="1">
       <c r="A96" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B96" s="8" t="n">
-        <v>1.01</v>
+        <v>68</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>145</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97" ht="NA" customHeight="1">
       <c r="A97" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B97" s="8" t="s">
-        <v>91</v>
+      <c r="B97" s="8" t="n">
+        <v>0.85</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>91</v>
+        <v>138</v>
+      </c>
+      <c r="D97" s="8" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="98" ht="NA" customHeight="1">
       <c r="A98" s="3" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="99" ht="NA" customHeight="1">
       <c r="A99" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B99" s="8" t="n">
-        <v>0.95</v>
+        <v>68</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>145</v>
+        <v>90</v>
       </c>
     </row>
     <row r="100" ht="NA" customHeight="1">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B100" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>91</v>
+      <c r="B100" s="9" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D100" s="9" t="n">
+        <v>0.008</v>
       </c>
     </row>
     <row r="101" ht="NA" customHeight="1">
-      <c r="A101" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="102" ht="NA" customHeight="1">
-      <c r="A102" s="4" t="s">
+      <c r="A101" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B102" s="9" t="n">
-        <v>4.94</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="D102" s="9" t="n">
-        <v>0.048</v>
-      </c>
-    </row>
-    <row r="103" ht="NA" customHeight="1">
-      <c r="A103" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>89</v>
+      <c r="B101" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="A101:D101"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
